--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/CALIFORNIA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/CALIFORNIA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2255"/>
+  <dimension ref="A1:D2249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -504,7 +504,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C11">
@@ -574,7 +574,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C16">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C40">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C41">
@@ -953,7 +953,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C44">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C46">
@@ -1083,7 +1083,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C54">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C59">
@@ -1499,7 +1499,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C86">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Montecristo de Guerero</t>
+          <t>Montecristo De Guerero</t>
         </is>
       </c>
       <c r="C89">
@@ -1590,7 +1590,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C93">
@@ -1733,7 +1733,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C104">
@@ -1746,7 +1746,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C105">
@@ -2336,7 +2336,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C150">
@@ -2466,7 +2466,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C160">
@@ -2505,7 +2505,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C163">
@@ -2791,7 +2791,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C185">
@@ -2804,7 +2804,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C186">
@@ -2817,7 +2817,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C187">
@@ -2921,7 +2921,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C195">
@@ -3199,7 +3199,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C216">
@@ -3399,7 +3399,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C231">
@@ -3425,7 +3425,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -3482,7 +3482,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C237">
@@ -3682,7 +3682,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C252">
@@ -3864,7 +3864,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C266">
@@ -3916,7 +3916,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C270">
@@ -4007,7 +4007,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C277">
@@ -4020,7 +4020,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C278">
@@ -4033,7 +4033,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C279">
@@ -4046,7 +4046,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C280">
@@ -4176,12 +4176,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C290">
@@ -4220,7 +4220,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C293">
@@ -4233,7 +4233,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C294">
@@ -4246,7 +4246,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C295">
@@ -4337,7 +4337,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C302">
@@ -4435,13 +4435,13 @@
         <v>136</v>
       </c>
       <c r="D309">
-        <v>0.0009580568353128479</v>
+        <v>0.000958056835312848</v>
       </c>
     </row>
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C310">
@@ -4519,7 +4519,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C316">
@@ -4610,7 +4610,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C323">
@@ -4714,7 +4714,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C331">
@@ -4727,7 +4727,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C332">
@@ -4948,7 +4948,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C349">
@@ -5130,7 +5130,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C363">
@@ -5143,7 +5143,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C364">
@@ -5156,7 +5156,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C365">
@@ -5182,7 +5182,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>San Simón de Guerero</t>
+          <t>San Simón De Guerero</t>
         </is>
       </c>
       <c r="C367">
@@ -5208,7 +5208,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C369">
@@ -5338,7 +5338,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C379">
@@ -5351,7 +5351,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C380">
@@ -5533,7 +5533,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C394">
@@ -5611,7 +5611,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C400">
@@ -5624,7 +5624,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C401">
@@ -5637,7 +5637,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C402">
@@ -5650,7 +5650,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C403">
@@ -5793,7 +5793,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -5837,7 +5837,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C417">
@@ -5850,7 +5850,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C418">
@@ -5954,7 +5954,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C426">
@@ -6006,7 +6006,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C430">
@@ -6110,7 +6110,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C438">
@@ -6162,7 +6162,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C442">
@@ -6188,7 +6188,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C444">
@@ -6214,7 +6214,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C446">
@@ -6240,7 +6240,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C448">
@@ -6266,7 +6266,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C450">
@@ -6331,7 +6331,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C455">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C461">
@@ -6458,7 +6458,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C464">
@@ -6471,7 +6471,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C465">
@@ -6523,7 +6523,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C469">
@@ -6536,7 +6536,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C470">
@@ -6562,7 +6562,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C472">
@@ -6575,7 +6575,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C473">
@@ -6614,7 +6614,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C476">
@@ -6627,7 +6627,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C477">
@@ -6640,7 +6640,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C478">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C479">
@@ -6673,7 +6673,7 @@
         <v>128</v>
       </c>
       <c r="D480">
-        <v>0.0009017005508826803</v>
+        <v>0.0009017005508826804</v>
       </c>
     </row>
     <row r="481">
@@ -6718,7 +6718,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C484">
@@ -6731,7 +6731,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C485">
@@ -6783,7 +6783,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C489">
@@ -6796,7 +6796,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C490">
@@ -6816,7 +6816,7 @@
         <v>131</v>
       </c>
       <c r="D491">
-        <v>0.0009228341575439931</v>
+        <v>0.0009228341575439932</v>
       </c>
     </row>
     <row r="492">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C496">
@@ -6887,7 +6887,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C497">
@@ -6913,7 +6913,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C499">
@@ -6926,7 +6926,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C500">
@@ -6952,14 +6952,14 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C502">
         <v>136</v>
       </c>
       <c r="D502">
-        <v>0.0009580568353128479</v>
+        <v>0.000958056835312848</v>
       </c>
     </row>
     <row r="503">
@@ -6991,7 +6991,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C505">
@@ -7160,7 +7160,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C518">
@@ -7186,7 +7186,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C520">
@@ -7212,7 +7212,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C522">
@@ -7238,7 +7238,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C524">
@@ -7290,7 +7290,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C528">
@@ -7303,7 +7303,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C529">
@@ -7464,7 +7464,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C541">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C548">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C549">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C555">
@@ -7724,7 +7724,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C561">
@@ -7776,7 +7776,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C565">
@@ -7815,7 +7815,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C568">
@@ -7906,7 +7906,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C575">
@@ -7919,7 +7919,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C576">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C577">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C578">
@@ -7958,7 +7958,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C579">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C581">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C582">
@@ -8010,7 +8010,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C583">
@@ -8049,7 +8049,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C586">
@@ -8127,7 +8127,7 @@
     <row r="592">
       <c r="B592" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C592">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerero</t>
+          <t>Santiago Tulantepec De Lugo Guerero</t>
         </is>
       </c>
       <c r="C593">
@@ -8192,7 +8192,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C597">
@@ -8218,7 +8218,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C599">
@@ -8231,7 +8231,7 @@
     <row r="600">
       <c r="B600" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C600">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C603">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C612">
@@ -8400,7 +8400,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C613">
@@ -8413,7 +8413,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C614">
@@ -8465,7 +8465,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C618">
@@ -8478,7 +8478,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C619">
@@ -8548,7 +8548,7 @@
     <row r="624">
       <c r="B624" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C624">
@@ -8561,7 +8561,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C625">
@@ -8626,7 +8626,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C630">
@@ -8665,7 +8665,7 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C633">
@@ -8691,7 +8691,7 @@
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C635">
@@ -8711,7 +8711,7 @@
         <v>134</v>
       </c>
       <c r="D636">
-        <v>0.0009439677642053059</v>
+        <v>0.000943967764205306</v>
       </c>
     </row>
     <row r="637">
@@ -8769,7 +8769,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C641">
@@ -8860,7 +8860,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C648">
@@ -8873,7 +8873,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C649">
@@ -8906,7 +8906,7 @@
         <v>128</v>
       </c>
       <c r="D651">
-        <v>0.0009017005508826803</v>
+        <v>0.0009017005508826804</v>
       </c>
     </row>
     <row r="652">
@@ -8990,7 +8990,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C658">
@@ -9081,7 +9081,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C665">
@@ -9094,7 +9094,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C666">
@@ -9107,7 +9107,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C667">
@@ -9159,7 +9159,7 @@
     <row r="671">
       <c r="B671" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C671">
@@ -9237,7 +9237,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C677">
@@ -9250,7 +9250,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C678">
@@ -9354,7 +9354,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C686">
@@ -9419,7 +9419,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C691">
@@ -9432,7 +9432,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C692">
@@ -9458,7 +9458,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C694">
@@ -9471,7 +9471,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C695">
@@ -9510,7 +9510,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C698">
@@ -9536,7 +9536,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C700">
@@ -9549,7 +9549,7 @@
     <row r="701">
       <c r="B701" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C701">
@@ -9562,7 +9562,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C702">
@@ -9575,7 +9575,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C703">
@@ -9614,7 +9614,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C706">
@@ -9627,7 +9627,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C707">
@@ -9666,7 +9666,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C710">
@@ -9718,7 +9718,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C714">
@@ -9731,7 +9731,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C715">
@@ -9770,7 +9770,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C718">
@@ -9783,7 +9783,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C719">
@@ -9939,7 +9939,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C731">
@@ -9952,7 +9952,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C732">
@@ -9965,7 +9965,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C733">
@@ -9978,7 +9978,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C734">
@@ -10043,7 +10043,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C739">
@@ -10056,7 +10056,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C740">
@@ -10095,7 +10095,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C743">
@@ -10108,7 +10108,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C744">
@@ -10121,7 +10121,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C745">
@@ -10141,7 +10141,7 @@
         <v>134</v>
       </c>
       <c r="D746">
-        <v>0.0009439677642053059</v>
+        <v>0.000943967764205306</v>
       </c>
     </row>
     <row r="747">
@@ -10263,7 +10263,7 @@
         <v>136</v>
       </c>
       <c r="D755">
-        <v>0.0009580568353128479</v>
+        <v>0.000958056835312848</v>
       </c>
     </row>
     <row r="756">
@@ -10367,7 +10367,7 @@
         <v>135</v>
       </c>
       <c r="D763">
-        <v>0.0009510122997590769</v>
+        <v>0.0009510122997590768</v>
       </c>
     </row>
     <row r="764">
@@ -10464,7 +10464,7 @@
     <row r="771">
       <c r="B771" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C771">
@@ -10490,7 +10490,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C773">
@@ -10679,7 +10679,7 @@
         <v>135</v>
       </c>
       <c r="D787">
-        <v>0.0009510122997590769</v>
+        <v>0.0009510122997590768</v>
       </c>
     </row>
     <row r="788">
@@ -10783,7 +10783,7 @@
         <v>129</v>
       </c>
       <c r="D795">
-        <v>0.0009087450864364513</v>
+        <v>0.0009087450864364512</v>
       </c>
     </row>
     <row r="796">
@@ -11043,7 +11043,7 @@
         <v>135</v>
       </c>
       <c r="D815">
-        <v>0.0009510122997590769</v>
+        <v>0.0009510122997590768</v>
       </c>
     </row>
     <row r="816">
@@ -11361,7 +11361,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C840">
@@ -11704,7 +11704,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C866">
@@ -11808,7 +11808,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C874">
@@ -11860,7 +11860,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C878">
@@ -11938,7 +11938,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C884">
@@ -11964,7 +11964,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C886">
@@ -12068,7 +12068,7 @@
     <row r="894">
       <c r="B894" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C894">
@@ -12125,7 +12125,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C898">
@@ -12138,7 +12138,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C899">
@@ -12190,7 +12190,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C903">
@@ -12281,7 +12281,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C910">
@@ -12546,7 +12546,7 @@
     <row r="930">
       <c r="B930" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C930">
@@ -12559,7 +12559,7 @@
     <row r="931">
       <c r="B931" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C931">
@@ -12611,7 +12611,7 @@
     <row r="935">
       <c r="B935" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C935">
@@ -12681,7 +12681,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C940">
@@ -12785,7 +12785,7 @@
     <row r="948">
       <c r="B948" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C948">
@@ -12837,7 +12837,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C952">
@@ -12863,7 +12863,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C954">
@@ -12876,7 +12876,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C955">
@@ -12915,7 +12915,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C958">
@@ -12954,7 +12954,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C961">
@@ -12993,7 +12993,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerero</t>
+          <t>Cuilápam De Guerero</t>
         </is>
       </c>
       <c r="C964">
@@ -13006,7 +13006,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Cuyamecalco Villa de Zaragoza</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C965">
@@ -13019,7 +13019,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C966">
@@ -13045,7 +13045,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C968">
@@ -13058,7 +13058,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C969">
@@ -13071,7 +13071,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C970">
@@ -13097,7 +13097,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C972">
@@ -13110,7 +13110,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C973">
@@ -13123,7 +13123,7 @@
     <row r="974">
       <c r="B974" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C974">
@@ -13136,7 +13136,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C975">
@@ -13149,7 +13149,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C976">
@@ -13175,7 +13175,7 @@
     <row r="978">
       <c r="B978" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C978">
@@ -13201,7 +13201,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C980">
@@ -13214,7 +13214,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C981">
@@ -13396,7 +13396,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Magdalena Yodocono de Porfirio Díaz</t>
+          <t>Magdalena Yodocono De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C995">
@@ -13422,7 +13422,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C997">
@@ -13435,7 +13435,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C998">
@@ -13461,7 +13461,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C1000">
@@ -13487,7 +13487,7 @@
     <row r="1002">
       <c r="B1002" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C1002">
@@ -13500,7 +13500,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Mixistlán de la Reforma</t>
+          <t>Mixistlán De La Reforma</t>
         </is>
       </c>
       <c r="C1003">
@@ -13552,7 +13552,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C1007">
@@ -13578,7 +13578,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C1009">
@@ -13591,7 +13591,7 @@
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C1010">
@@ -13604,7 +13604,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C1011">
@@ -13630,7 +13630,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C1013">
@@ -13643,7 +13643,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C1014">
@@ -13669,7 +13669,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1016">
@@ -13734,7 +13734,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C1021">
@@ -13981,7 +13981,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C1040">
@@ -14020,7 +14020,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C1043">
@@ -14111,7 +14111,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>San Baltazar Yatzachi el Bajo</t>
+          <t>San Baltazar Yatzachi El Bajo</t>
         </is>
       </c>
       <c r="C1050">
@@ -14196,7 +14196,7 @@
         <v>138</v>
       </c>
       <c r="D1056">
-        <v>0.0009721459064203897</v>
+        <v>0.0009721459064203896</v>
       </c>
     </row>
     <row r="1057">
@@ -14319,7 +14319,7 @@
     <row r="1066">
       <c r="B1066" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C1066">
@@ -14339,7 +14339,7 @@
         <v>138</v>
       </c>
       <c r="D1067">
-        <v>0.0009721459064203897</v>
+        <v>0.0009721459064203896</v>
       </c>
     </row>
     <row r="1068">
@@ -14371,7 +14371,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C1070">
@@ -14462,7 +14462,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C1077">
@@ -14761,7 +14761,7 @@
     <row r="1100">
       <c r="B1100" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C1100">
@@ -14774,7 +14774,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C1101">
@@ -14930,7 +14930,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C1113">
@@ -15112,7 +15112,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>San Juan de los Cués</t>
+          <t>San Juan De Los Cués</t>
         </is>
       </c>
       <c r="C1127">
@@ -15125,7 +15125,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C1128">
@@ -15138,7 +15138,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1129">
@@ -15671,7 +15671,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C1170">
@@ -15775,7 +15775,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C1178">
@@ -15957,7 +15957,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C1192">
@@ -15970,7 +15970,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C1193">
@@ -15996,7 +15996,7 @@
     <row r="1195">
       <c r="B1195" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C1195">
@@ -16308,7 +16308,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C1219">
@@ -16412,7 +16412,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C1227">
@@ -16685,7 +16685,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C1248">
@@ -16698,7 +16698,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C1249">
@@ -16711,7 +16711,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C1250">
@@ -16945,7 +16945,7 @@
     <row r="1268">
       <c r="B1268" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C1268">
@@ -17166,7 +17166,7 @@
     <row r="1285">
       <c r="B1285" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C1285">
@@ -17231,7 +17231,7 @@
     <row r="1290">
       <c r="B1290" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C1290">
@@ -17309,7 +17309,7 @@
     <row r="1296">
       <c r="B1296" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C1296">
@@ -17322,7 +17322,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C1297">
@@ -17348,7 +17348,7 @@
     <row r="1299">
       <c r="B1299" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C1299">
@@ -17530,7 +17530,7 @@
     <row r="1313">
       <c r="B1313" t="inlineStr">
         <is>
-          <t>Santa María del Rosario</t>
+          <t>Santa María Del Rosario</t>
         </is>
       </c>
       <c r="C1313">
@@ -17543,7 +17543,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C1314">
@@ -17647,7 +17647,7 @@
     <row r="1322">
       <c r="B1322" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C1322">
@@ -18154,7 +18154,7 @@
     <row r="1361">
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C1361">
@@ -18213,7 +18213,7 @@
         <v>138</v>
       </c>
       <c r="D1365">
-        <v>0.0009721459064203897</v>
+        <v>0.0009721459064203896</v>
       </c>
     </row>
     <row r="1366">
@@ -18648,7 +18648,7 @@
     <row r="1399">
       <c r="B1399" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1399">
@@ -18973,7 +18973,7 @@
     <row r="1424">
       <c r="B1424" t="inlineStr">
         <is>
-          <t>Sitio de Xitlapehua</t>
+          <t>Sitio De Xitlapehua</t>
         </is>
       </c>
       <c r="C1424">
@@ -18999,7 +18999,7 @@
     <row r="1426">
       <c r="B1426" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1426">
@@ -19012,7 +19012,7 @@
     <row r="1427">
       <c r="B1427" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C1427">
@@ -19038,7 +19038,7 @@
     <row r="1429">
       <c r="B1429" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1429">
@@ -19051,7 +19051,7 @@
     <row r="1430">
       <c r="B1430" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C1430">
@@ -19064,7 +19064,7 @@
     <row r="1431">
       <c r="B1431" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C1431">
@@ -19077,7 +19077,7 @@
     <row r="1432">
       <c r="B1432" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1432">
@@ -19103,7 +19103,7 @@
     <row r="1434">
       <c r="B1434" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1434">
@@ -19116,7 +19116,7 @@
     <row r="1435">
       <c r="B1435" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C1435">
@@ -19129,7 +19129,7 @@
     <row r="1436">
       <c r="B1436" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1436">
@@ -19155,7 +19155,7 @@
     <row r="1438">
       <c r="B1438" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C1438">
@@ -19168,7 +19168,7 @@
     <row r="1439">
       <c r="B1439" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1439">
@@ -19220,7 +19220,7 @@
     <row r="1443">
       <c r="B1443" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C1443">
@@ -19233,7 +19233,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1444">
@@ -19246,7 +19246,7 @@
     <row r="1445">
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1445">
@@ -19259,7 +19259,7 @@
     <row r="1446">
       <c r="B1446" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C1446">
@@ -19272,7 +19272,7 @@
     <row r="1447">
       <c r="B1447" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1447">
@@ -19311,7 +19311,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1450">
@@ -19324,7 +19324,7 @@
     <row r="1451">
       <c r="B1451" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C1451">
@@ -19363,7 +19363,7 @@
     <row r="1454">
       <c r="B1454" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerero</t>
+          <t>Yutanduchi De Guerero</t>
         </is>
       </c>
       <c r="C1454">
@@ -19376,7 +19376,7 @@
     <row r="1455">
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1455">
@@ -19415,7 +19415,7 @@
     <row r="1458">
       <c r="B1458" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1458">
@@ -19479,7 +19479,7 @@
         <v>136</v>
       </c>
       <c r="D1462">
-        <v>0.0009580568353128479</v>
+        <v>0.000958056835312848</v>
       </c>
     </row>
     <row r="1463">
@@ -19771,7 +19771,7 @@
     <row r="1485">
       <c r="B1485" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerero</t>
+          <t>Ayotoxco De Guerero</t>
         </is>
       </c>
       <c r="C1485">
@@ -19823,7 +19823,7 @@
     <row r="1489">
       <c r="B1489" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1489">
@@ -19953,7 +19953,7 @@
     <row r="1499">
       <c r="B1499" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1499">
@@ -20096,7 +20096,7 @@
     <row r="1510">
       <c r="B1510" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1510">
@@ -20148,7 +20148,7 @@
     <row r="1514">
       <c r="B1514" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1514">
@@ -20161,7 +20161,7 @@
     <row r="1515">
       <c r="B1515" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1515">
@@ -20369,7 +20369,7 @@
     <row r="1531">
       <c r="B1531" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1531">
@@ -20382,7 +20382,7 @@
     <row r="1532">
       <c r="B1532" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1532">
@@ -20447,7 +20447,7 @@
     <row r="1537">
       <c r="B1537" t="inlineStr">
         <is>
-          <t>Huitzilan de Serdán</t>
+          <t>Huitzilan De Serdán</t>
         </is>
       </c>
       <c r="C1537">
@@ -20473,7 +20473,7 @@
     <row r="1539">
       <c r="B1539" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C1539">
@@ -20512,7 +20512,7 @@
     <row r="1542">
       <c r="B1542" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1542">
@@ -20642,7 +20642,7 @@
     <row r="1552">
       <c r="B1552" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1552">
@@ -20655,7 +20655,7 @@
     <row r="1553">
       <c r="B1553" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C1553">
@@ -20824,7 +20824,7 @@
     <row r="1566">
       <c r="B1566" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1566">
@@ -20954,7 +20954,7 @@
     <row r="1576">
       <c r="B1576" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C1576">
@@ -21104,7 +21104,7 @@
         <v>134</v>
       </c>
       <c r="D1587">
-        <v>0.0009439677642053059</v>
+        <v>0.000943967764205306</v>
       </c>
     </row>
     <row r="1588">
@@ -21175,7 +21175,7 @@
     <row r="1593">
       <c r="B1593" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C1593">
@@ -21227,7 +21227,7 @@
     <row r="1597">
       <c r="B1597" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1597">
@@ -21240,7 +21240,7 @@
     <row r="1598">
       <c r="B1598" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C1598">
@@ -21344,7 +21344,7 @@
     <row r="1606">
       <c r="B1606" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C1606">
@@ -21448,7 +21448,7 @@
     <row r="1614">
       <c r="B1614" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1614">
@@ -21461,7 +21461,7 @@
     <row r="1615">
       <c r="B1615" t="inlineStr">
         <is>
-          <t>Tepango de Rodríguez</t>
+          <t>Tepango De Rodríguez</t>
         </is>
       </c>
       <c r="C1615">
@@ -21474,14 +21474,14 @@
     <row r="1616">
       <c r="B1616" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1616">
         <v>131</v>
       </c>
       <c r="D1616">
-        <v>0.0009228341575439931</v>
+        <v>0.0009228341575439932</v>
       </c>
     </row>
     <row r="1617">
@@ -21552,7 +21552,7 @@
     <row r="1622">
       <c r="B1622" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1622">
@@ -21578,7 +21578,7 @@
     <row r="1624">
       <c r="B1624" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1624">
@@ -21591,7 +21591,7 @@
     <row r="1625">
       <c r="B1625" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1625">
@@ -21604,7 +21604,7 @@
     <row r="1626">
       <c r="B1626" t="inlineStr">
         <is>
-          <t>Teteles de Avila Castillo</t>
+          <t>Teteles De Avila Castillo</t>
         </is>
       </c>
       <c r="C1626">
@@ -21669,7 +21669,7 @@
     <row r="1631">
       <c r="B1631" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1631">
@@ -21825,7 +21825,7 @@
     <row r="1643">
       <c r="B1643" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerero</t>
+          <t>Totoltepec De Guerero</t>
         </is>
       </c>
       <c r="C1643">
@@ -21851,7 +21851,7 @@
     <row r="1645">
       <c r="B1645" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1645">
@@ -21903,7 +21903,7 @@
     <row r="1649">
       <c r="B1649" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C1649">
@@ -21981,7 +21981,7 @@
     <row r="1655">
       <c r="B1655" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1655">
@@ -22085,7 +22085,7 @@
     <row r="1663">
       <c r="B1663" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C1663">
@@ -22207,14 +22207,14 @@
       </c>
       <c r="B1672" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1672">
         <v>138</v>
       </c>
       <c r="D1672">
-        <v>0.0009721459064203897</v>
+        <v>0.0009721459064203896</v>
       </c>
     </row>
     <row r="1673">
@@ -22233,7 +22233,7 @@
     <row r="1674">
       <c r="B1674" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1674">
@@ -22311,7 +22311,7 @@
     <row r="1680">
       <c r="B1680" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1680">
@@ -22324,7 +22324,7 @@
     <row r="1681">
       <c r="B1681" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1681">
@@ -22363,7 +22363,7 @@
     <row r="1684">
       <c r="B1684" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1684">
@@ -22402,7 +22402,7 @@
     <row r="1687">
       <c r="B1687" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1687">
@@ -22568,7 +22568,7 @@
     <row r="1699">
       <c r="B1699" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1699">
@@ -22581,7 +22581,7 @@
     <row r="1700">
       <c r="B1700" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1700">
@@ -22659,7 +22659,7 @@
     <row r="1706">
       <c r="B1706" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1706">
@@ -22776,7 +22776,7 @@
     <row r="1715">
       <c r="B1715" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1715">
@@ -22854,7 +22854,7 @@
     <row r="1721">
       <c r="B1721" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1721">
@@ -22874,7 +22874,7 @@
         <v>138</v>
       </c>
       <c r="D1722">
-        <v>0.0009721459064203897</v>
+        <v>0.0009721459064203896</v>
       </c>
     </row>
     <row r="1723">
@@ -22893,7 +22893,7 @@
     <row r="1724">
       <c r="B1724" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1724">
@@ -22919,7 +22919,7 @@
     <row r="1726">
       <c r="B1726" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1726">
@@ -23023,7 +23023,7 @@
     <row r="1734">
       <c r="B1734" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1734">
@@ -23036,7 +23036,7 @@
     <row r="1735">
       <c r="B1735" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1735">
@@ -23049,7 +23049,7 @@
     <row r="1736">
       <c r="B1736" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1736">
@@ -23062,7 +23062,7 @@
     <row r="1737">
       <c r="B1737" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1737">
@@ -23075,7 +23075,7 @@
     <row r="1738">
       <c r="B1738" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1738">
@@ -23373,7 +23373,7 @@
         <v>134</v>
       </c>
       <c r="D1760">
-        <v>0.0009439677642053059</v>
+        <v>0.000943967764205306</v>
       </c>
     </row>
     <row r="1761">
@@ -23878,7 +23878,7 @@
     <row r="1799">
       <c r="B1799" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1799">
@@ -24034,7 +24034,7 @@
     <row r="1811">
       <c r="B1811" t="inlineStr">
         <is>
-          <t>San Pedro de la Cueva</t>
+          <t>San Pedro De La Cueva</t>
         </is>
       </c>
       <c r="C1811">
@@ -24260,7 +24260,7 @@
     <row r="1828">
       <c r="B1828" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1828">
@@ -24707,7 +24707,7 @@
     <row r="1862">
       <c r="B1862" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1862">
@@ -24803,7 +24803,7 @@
       </c>
       <c r="B1869" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1869">
@@ -24829,7 +24829,7 @@
     <row r="1871">
       <c r="B1871" t="inlineStr">
         <is>
-          <t>Amaxac de Guerero</t>
+          <t>Amaxac De Guerero</t>
         </is>
       </c>
       <c r="C1871">
@@ -24842,7 +24842,7 @@
     <row r="1872">
       <c r="B1872" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C1872">
@@ -24920,7 +24920,7 @@
     <row r="1878">
       <c r="B1878" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1878">
@@ -25024,7 +25024,7 @@
     <row r="1886">
       <c r="B1886" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1886">
@@ -25076,7 +25076,7 @@
     <row r="1890">
       <c r="B1890" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1890">
@@ -25089,7 +25089,7 @@
     <row r="1891">
       <c r="B1891" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1891">
@@ -25102,7 +25102,7 @@
     <row r="1892">
       <c r="B1892" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1892">
@@ -25141,7 +25141,7 @@
     <row r="1895">
       <c r="B1895" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1895">
@@ -25180,7 +25180,7 @@
     <row r="1898">
       <c r="B1898" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1898">
@@ -25193,7 +25193,7 @@
     <row r="1899">
       <c r="B1899" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1899">
@@ -25284,7 +25284,7 @@
     <row r="1906">
       <c r="B1906" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1906">
@@ -25323,7 +25323,7 @@
     <row r="1909">
       <c r="B1909" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1909">
@@ -25356,7 +25356,7 @@
         <v>134</v>
       </c>
       <c r="D1911">
-        <v>0.0009439677642053059</v>
+        <v>0.000943967764205306</v>
       </c>
     </row>
     <row r="1912">
@@ -25466,7 +25466,7 @@
     <row r="1920">
       <c r="B1920" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1920">
@@ -25601,7 +25601,7 @@
     <row r="1930">
       <c r="B1930" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1930">
@@ -25653,7 +25653,7 @@
     <row r="1934">
       <c r="B1934" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1934">
@@ -25809,7 +25809,7 @@
     <row r="1946">
       <c r="B1946" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1946">
@@ -25835,7 +25835,7 @@
     <row r="1948">
       <c r="B1948" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1948">
@@ -25887,7 +25887,7 @@
     <row r="1952">
       <c r="B1952" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1952">
@@ -25913,7 +25913,7 @@
     <row r="1954">
       <c r="B1954" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1954">
@@ -26017,7 +26017,7 @@
     <row r="1962">
       <c r="B1962" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C1962">
@@ -26186,7 +26186,7 @@
     <row r="1975">
       <c r="B1975" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1975">
@@ -26199,7 +26199,7 @@
     <row r="1976">
       <c r="B1976" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1976">
@@ -26407,7 +26407,7 @@
     <row r="1992">
       <c r="B1992" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1992">
@@ -26420,7 +26420,7 @@
     <row r="1993">
       <c r="B1993" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1993">
@@ -26433,7 +26433,7 @@
     <row r="1994">
       <c r="B1994" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1994">
@@ -26485,7 +26485,7 @@
     <row r="1998">
       <c r="B1998" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1998">
@@ -26498,7 +26498,7 @@
     <row r="1999">
       <c r="B1999" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1999">
@@ -26511,7 +26511,7 @@
     <row r="2000">
       <c r="B2000" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C2000">
@@ -26524,7 +26524,7 @@
     <row r="2001">
       <c r="B2001" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C2001">
@@ -26641,7 +26641,7 @@
     <row r="2010">
       <c r="B2010" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C2010">
@@ -26693,7 +26693,7 @@
     <row r="2014">
       <c r="B2014" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C2014">
@@ -26706,7 +26706,7 @@
     <row r="2015">
       <c r="B2015" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C2015">
@@ -26771,7 +26771,7 @@
     <row r="2020">
       <c r="B2020" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C2020">
@@ -26810,7 +26810,7 @@
     <row r="2023">
       <c r="B2023" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C2023">
@@ -26875,7 +26875,7 @@
     <row r="2028">
       <c r="B2028" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C2028">
@@ -27018,7 +27018,7 @@
     <row r="2039">
       <c r="B2039" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C2039">
@@ -27070,7 +27070,7 @@
     <row r="2043">
       <c r="B2043" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C2043">
@@ -27083,7 +27083,7 @@
     <row r="2044">
       <c r="B2044" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C2044">
@@ -27135,7 +27135,7 @@
     <row r="2048">
       <c r="B2048" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C2048">
@@ -27278,7 +27278,7 @@
     <row r="2059">
       <c r="B2059" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C2059">
@@ -27317,7 +27317,7 @@
     <row r="2062">
       <c r="B2062" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C2062">
@@ -27395,7 +27395,7 @@
     <row r="2068">
       <c r="B2068" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C2068">
@@ -27850,7 +27850,7 @@
     <row r="2103">
       <c r="B2103" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C2103">
@@ -28006,7 +28006,7 @@
     <row r="2115">
       <c r="B2115" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C2115">
@@ -28019,7 +28019,7 @@
     <row r="2116">
       <c r="B2116" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C2116">
@@ -28726,7 +28726,7 @@
     <row r="2170">
       <c r="B2170" t="inlineStr">
         <is>
-          <t>Tekal de Venegas</t>
+          <t>Tekal De Venegas</t>
         </is>
       </c>
       <c r="C2170">
@@ -29082,7 +29082,7 @@
     <row r="2197">
       <c r="B2197" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C2197">
@@ -29108,7 +29108,7 @@
     <row r="2199">
       <c r="B2199" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C2199">
@@ -29134,7 +29134,7 @@
     <row r="2201">
       <c r="B2201" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C2201">
@@ -29277,7 +29277,7 @@
     <row r="2212">
       <c r="B2212" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C2212">
@@ -29355,7 +29355,7 @@
     <row r="2218">
       <c r="B2218" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C2218">
@@ -29420,7 +29420,7 @@
     <row r="2223">
       <c r="B2223" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C2223">
@@ -29433,7 +29433,7 @@
     <row r="2224">
       <c r="B2224" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C2224">
@@ -29446,7 +29446,7 @@
     <row r="2225">
       <c r="B2225" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C2225">
@@ -29589,7 +29589,7 @@
     <row r="2236">
       <c r="B2236" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C2236">
@@ -29602,7 +29602,7 @@
     <row r="2237">
       <c r="B2237" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C2237">
@@ -29628,7 +29628,7 @@
     <row r="2239">
       <c r="B2239" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C2239">
@@ -29667,7 +29667,7 @@
     <row r="2242">
       <c r="B2242" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C2242">
@@ -29766,41 +29766,6 @@
       </c>
       <c r="D2249">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2251">
-      <c r="B2251" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="2252">
-      <c r="B2252" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2253">
-      <c r="B2253" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="2254">
-      <c r="B2254" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="2255">
-      <c r="B2255" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
